--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H2">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I2">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J2">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N2">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O2">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P2">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q2">
-        <v>12.08788828083156</v>
+        <v>6.312992691975333</v>
       </c>
       <c r="R2">
-        <v>108.790994527484</v>
+        <v>56.816934227778</v>
       </c>
       <c r="S2">
-        <v>0.03862396061362339</v>
+        <v>0.02413675138490774</v>
       </c>
       <c r="T2">
-        <v>0.04209549879302588</v>
+        <v>0.02520196000882207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H3">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I3">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J3">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P3">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q3">
-        <v>1.014109884816</v>
+        <v>0.4207178285520001</v>
       </c>
       <c r="R3">
-        <v>9.126988963344003</v>
+        <v>3.786460456968</v>
       </c>
       <c r="S3">
-        <v>0.003240345984263582</v>
+        <v>0.001608549562217288</v>
       </c>
       <c r="T3">
-        <v>0.003531589673935242</v>
+        <v>0.001679538438820577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H4">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I4">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J4">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N4">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O4">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P4">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q4">
-        <v>30.96999370557867</v>
+        <v>18.70185876882833</v>
       </c>
       <c r="R4">
-        <v>278.7299433502081</v>
+        <v>168.316728919455</v>
       </c>
       <c r="S4">
-        <v>0.09895721976395917</v>
+        <v>0.07150366514959844</v>
       </c>
       <c r="T4">
-        <v>0.1078515372052662</v>
+        <v>0.07465928122834133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H5">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I5">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J5">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N5">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O5">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P5">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q5">
-        <v>5.710804042320334</v>
+        <v>1.046347247119833</v>
       </c>
       <c r="R5">
-        <v>34.26482425392201</v>
+        <v>6.278083482719</v>
       </c>
       <c r="S5">
-        <v>0.01824751067169261</v>
+        <v>0.004000546903549737</v>
       </c>
       <c r="T5">
-        <v>0.01325840318207426</v>
+        <v>0.002784733302033328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H6">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I6">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J6">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N6">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O6">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P6">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q6">
-        <v>25.496873181782</v>
+        <v>12.26139826224822</v>
       </c>
       <c r="R6">
-        <v>229.471858636038</v>
+        <v>110.352584360234</v>
       </c>
       <c r="S6">
-        <v>0.08146917002081629</v>
+        <v>0.0468795602857925</v>
       </c>
       <c r="T6">
-        <v>0.0887916540353567</v>
+        <v>0.04894845974559976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.466364</v>
       </c>
       <c r="I7">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J7">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N7">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O7">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P7">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q7">
-        <v>25.43049230841689</v>
+        <v>32.01354119214133</v>
       </c>
       <c r="R7">
-        <v>228.874430775752</v>
+        <v>288.121870729272</v>
       </c>
       <c r="S7">
-        <v>0.0812570657906326</v>
+        <v>0.1223988245206474</v>
       </c>
       <c r="T7">
-        <v>0.0885604857858079</v>
+        <v>0.1278005573950182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.466364</v>
       </c>
       <c r="I8">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J8">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P8">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q8">
         <v>2.133483783648</v>
@@ -948,10 +948,10 @@
         <v>19.201354052832</v>
       </c>
       <c r="S8">
-        <v>0.006817037990009933</v>
+        <v>0.008157045347938015</v>
       </c>
       <c r="T8">
-        <v>0.007429756294315819</v>
+        <v>0.008517033935951431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.466364</v>
       </c>
       <c r="I9">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J9">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N9">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O9">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P9">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q9">
-        <v>65.15465467780267</v>
+        <v>94.83817822671334</v>
       </c>
       <c r="R9">
-        <v>586.391892100224</v>
+        <v>853.54360404042</v>
       </c>
       <c r="S9">
-        <v>0.2081861411691145</v>
+        <v>0.3625991097004575</v>
       </c>
       <c r="T9">
-        <v>0.2268980010097166</v>
+        <v>0.3786014164117946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>2.466364</v>
       </c>
       <c r="I10">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J10">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N10">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O10">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P10">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q10">
-        <v>12.01438621031934</v>
+        <v>5.306085771259334</v>
       </c>
       <c r="R10">
-        <v>72.08631726191601</v>
+        <v>31.836514627556</v>
       </c>
       <c r="S10">
-        <v>0.03838910229838022</v>
+        <v>0.02028699847073788</v>
       </c>
       <c r="T10">
-        <v>0.0278930208743156</v>
+        <v>0.01412153927995075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.466364</v>
       </c>
       <c r="I11">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J11">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N11">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O11">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P11">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q11">
-        <v>53.640306914996</v>
+        <v>62.17824057371288</v>
       </c>
       <c r="R11">
-        <v>482.762762234964</v>
+        <v>559.6041651634159</v>
       </c>
       <c r="S11">
-        <v>0.171394792328851</v>
+        <v>0.2377288882634676</v>
       </c>
       <c r="T11">
-        <v>0.1867998299238432</v>
+        <v>0.2482203938473611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H12">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I12">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J12">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N12">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O12">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P12">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q12">
-        <v>8.844298360853333</v>
+        <v>4.291654105109</v>
       </c>
       <c r="R12">
-        <v>53.06579016512</v>
+        <v>25.749924630654</v>
       </c>
       <c r="S12">
-        <v>0.02825984353995316</v>
+        <v>0.01640847585594503</v>
       </c>
       <c r="T12">
-        <v>0.02053323361505292</v>
+        <v>0.01142174563960636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H13">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I13">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J13">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.595096</v>
       </c>
       <c r="N13">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O13">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P13">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q13">
-        <v>0.7419898483200001</v>
+        <v>0.286009422804</v>
       </c>
       <c r="R13">
-        <v>4.451939089920001</v>
+        <v>1.716056536824</v>
       </c>
       <c r="S13">
-        <v>0.00237085138540415</v>
+        <v>0.001093512802689632</v>
       </c>
       <c r="T13">
-        <v>0.001722629684564629</v>
+        <v>0.0007611813062728058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H14">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I14">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J14">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N14">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O14">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P14">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q14">
-        <v>22.65969524224</v>
+        <v>12.7137655426775</v>
       </c>
       <c r="R14">
-        <v>135.95817145344</v>
+        <v>76.282593256065</v>
       </c>
       <c r="S14">
-        <v>0.07240364538617158</v>
+        <v>0.04860911663333389</v>
       </c>
       <c r="T14">
-        <v>0.05260754410030164</v>
+        <v>0.03383623017921807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H15">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I15">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J15">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N15">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O15">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P15">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q15">
-        <v>4.178401856240001</v>
+        <v>0.7113203955042501</v>
       </c>
       <c r="R15">
-        <v>16.71360742496</v>
+        <v>2.845281582017</v>
       </c>
       <c r="S15">
-        <v>0.01335108539836724</v>
+        <v>0.002719623541323658</v>
       </c>
       <c r="T15">
-        <v>0.006467149640835105</v>
+        <v>0.00126206515044194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H16">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I16">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J16">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N16">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O16">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P16">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q16">
-        <v>18.65519836464</v>
+        <v>8.335457168110333</v>
       </c>
       <c r="R16">
-        <v>111.93119018784</v>
+        <v>50.012743008662</v>
       </c>
       <c r="S16">
-        <v>0.05960823182141616</v>
+        <v>0.03186933157739387</v>
       </c>
       <c r="T16">
-        <v>0.04331056354360122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.1257833333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.37735</v>
-      </c>
-      <c r="I17">
-        <v>0.07742399583734456</v>
-      </c>
-      <c r="J17">
-        <v>0.08224910263798713</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>30.93277266666666</v>
-      </c>
-      <c r="N17">
-        <v>92.79831799999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1605730793731885</v>
-      </c>
-      <c r="P17">
-        <v>0.1647388399493432</v>
-      </c>
-      <c r="Q17">
-        <v>3.890827255255555</v>
-      </c>
-      <c r="R17">
-        <v>35.0174452973</v>
-      </c>
-      <c r="S17">
-        <v>0.01243220942897934</v>
-      </c>
-      <c r="T17">
-        <v>0.01354962175545646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.1257833333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.37735</v>
-      </c>
-      <c r="I18">
-        <v>0.07742399583734456</v>
-      </c>
-      <c r="J18">
-        <v>0.08224910263798713</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.595096</v>
-      </c>
-      <c r="N18">
-        <v>7.785288000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.01347123196744937</v>
-      </c>
-      <c r="P18">
-        <v>0.01382071724394339</v>
-      </c>
-      <c r="Q18">
-        <v>0.3264198252</v>
-      </c>
-      <c r="R18">
-        <v>2.9377784268</v>
-      </c>
-      <c r="S18">
-        <v>0.001042996607771703</v>
-      </c>
-      <c r="T18">
-        <v>0.001136741591127698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.1257833333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.37735</v>
-      </c>
-      <c r="I19">
-        <v>0.07742399583734456</v>
-      </c>
-      <c r="J19">
-        <v>0.08224910263798713</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>79.25187200000001</v>
-      </c>
-      <c r="N19">
-        <v>237.755616</v>
-      </c>
-      <c r="O19">
-        <v>0.411399174275867</v>
-      </c>
-      <c r="P19">
-        <v>0.4220721368169787</v>
-      </c>
-      <c r="Q19">
-        <v>9.968564633066666</v>
-      </c>
-      <c r="R19">
-        <v>89.71708169760002</v>
-      </c>
-      <c r="S19">
-        <v>0.03185216795662171</v>
-      </c>
-      <c r="T19">
-        <v>0.03471505450169422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.1257833333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.37735</v>
-      </c>
-      <c r="I20">
-        <v>0.07742399583734456</v>
-      </c>
-      <c r="J20">
-        <v>0.08224910263798713</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.6138845</v>
-      </c>
-      <c r="N20">
-        <v>29.227769</v>
-      </c>
-      <c r="O20">
-        <v>0.07586117355389273</v>
-      </c>
-      <c r="P20">
-        <v>0.05188616413680444</v>
-      </c>
-      <c r="Q20">
-        <v>1.838183105358334</v>
-      </c>
-      <c r="R20">
-        <v>11.02909863215</v>
-      </c>
-      <c r="S20">
-        <v>0.005873475185452664</v>
-      </c>
-      <c r="T20">
-        <v>0.004267590439579475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.1257833333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.37735</v>
-      </c>
-      <c r="I21">
-        <v>0.07742399583734456</v>
-      </c>
-      <c r="J21">
-        <v>0.08224910263798713</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>65.246217</v>
-      </c>
-      <c r="N21">
-        <v>195.738651</v>
-      </c>
-      <c r="O21">
-        <v>0.3386953408296026</v>
-      </c>
-      <c r="P21">
-        <v>0.3474821418529304</v>
-      </c>
-      <c r="Q21">
-        <v>8.20688666165</v>
-      </c>
-      <c r="R21">
-        <v>73.86197995485</v>
-      </c>
-      <c r="S21">
-        <v>0.02622314665851915</v>
-      </c>
-      <c r="T21">
-        <v>0.02858009435012927</v>
+        <v>0.02218386413076776</v>
       </c>
     </row>
   </sheetData>
